--- a/Table_Details.xlsx
+++ b/Table_Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2406751_cognizant_com/Documents/Desktop/eCommerceProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2406740_cognizant_com/Documents/Desktop/eCommerceProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{DA160859-3EC5-49F0-95D0-05451B449B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0642C572-75C1-49D3-9B99-36A5AC7B1A9E}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{DA160859-3EC5-49F0-95D0-05451B449B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08791356-0984-43AF-B577-4AF2E8723FE2}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{60A7D894-18DA-4D86-9B4D-A3E1F4AA6A38}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{60A7D894-18DA-4D86-9B4D-A3E1F4AA6A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
   <si>
     <t>Table Name : Employee</t>
   </si>
@@ -153,7 +153,49 @@
     <t>paymentDate</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>stockQuantity</t>
+  </si>
+  <si>
+    <t>Decimal(10,2)</t>
+  </si>
+  <si>
+    <t>10 Digits, 2 decimal places</t>
+  </si>
+  <si>
+    <t>cartId</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>orderDate</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>10 digits, 2 decimal places</t>
   </si>
 </sst>
 </file>
@@ -239,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -262,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,11 +839,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAF6EBC-EE78-4B98-895E-9C74DD3FBC54}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" customWidth="1"/>
+    <col min="18" max="18" width="13.08984375" customWidth="1"/>
+    <col min="19" max="19" width="23.26953125" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" customWidth="1"/>
+    <col min="24" max="24" width="22.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
@@ -934,29 +992,51 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="P3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="U3" s="4" t="s">
         <v>6</v>
       </c>
@@ -966,7 +1046,9 @@
       <c r="W3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="4"/>
+      <c r="X3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Z3" s="4" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1058,9 @@
       <c r="AB3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="4"/>
+      <c r="AC3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="AE3" s="4" t="s">
         <v>6</v>
       </c>
@@ -986,29 +1070,59 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4">
+        <v>100</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
         <v>30</v>
@@ -1026,29 +1140,53 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="U5" s="4"/>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="W5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="AB5" s="4" t="s">
@@ -1064,43 +1202,77 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="L6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="Q6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
+      <c r="W6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
+      <c r="AB6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1110,19 +1282,27 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="Q7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="U7" s="4"/>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="AB7" s="4" t="s">
@@ -1138,9 +1318,15 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1153,15 +1339,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="U8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>

--- a/Table_Details.xlsx
+++ b/Table_Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2406740_cognizant_com/Documents/Desktop/eCommerceProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2406751_cognizant_com/Documents/Desktop/eCommerceProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{DA160859-3EC5-49F0-95D0-05451B449B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08791356-0984-43AF-B577-4AF2E8723FE2}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{DA160859-3EC5-49F0-95D0-05451B449B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{912D0BAF-3F2D-4745-9997-27BC4091A6DF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{60A7D894-18DA-4D86-9B4D-A3E1F4AA6A38}"/>
   </bookViews>
@@ -302,11 +302,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,18 +661,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -839,68 +839,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAF6EBC-EE78-4B98-895E-9C74DD3FBC54}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
     <col min="4" max="4" width="22.36328125" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" customWidth="1"/>
     <col min="12" max="12" width="9.453125" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="13.08984375" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" customWidth="1"/>
     <col min="19" max="19" width="23.26953125" customWidth="1"/>
     <col min="22" max="22" width="13.1796875" customWidth="1"/>
-    <col min="23" max="23" width="12.1796875" customWidth="1"/>
+    <col min="23" max="23" width="13.81640625" customWidth="1"/>
     <col min="24" max="24" width="22.08984375" customWidth="1"/>
+    <col min="27" max="27" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Z1" s="8" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Z1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AE1" s="8" t="s">
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
     </row>
     <row r="2" spans="1:34" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -992,7 +993,7 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1028,7 +1029,7 @@
       <c r="P3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="R3" s="4" t="s">
@@ -1052,7 +1053,7 @@
       <c r="Z3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="AB3" s="4" t="s">
@@ -1070,7 +1071,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1080,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1092,7 +1093,7 @@
       <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1102,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="P4" s="4"/>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="R4" s="4" t="s">
@@ -1114,7 +1115,7 @@
       <c r="U4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="W4" s="4" t="s">
@@ -1124,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AB4" s="4" t="s">
@@ -1140,7 +1141,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1156,7 +1157,7 @@
       <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1166,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="R5" s="4" t="s">
@@ -1176,7 +1177,7 @@
         <v>52</v>
       </c>
       <c r="U5" s="4"/>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="W5" s="4" t="s">
@@ -1186,7 +1187,7 @@
         <v>52</v>
       </c>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="AB5" s="4" t="s">
@@ -1202,7 +1203,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1216,7 +1217,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1226,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="P6" s="4"/>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="8" t="s">
         <v>48</v>
       </c>
       <c r="R6" s="4" t="s">
@@ -1246,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AB6" s="4" t="s">
@@ -1282,7 +1283,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="8" t="s">
         <v>49</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -1292,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="U7" s="4"/>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="8" t="s">
         <v>37</v>
       </c>
       <c r="W7" s="4" t="s">
@@ -1302,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AB7" s="4" t="s">
@@ -1318,7 +1319,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1340,7 +1341,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="9"/>
+      <c r="V8" s="8"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Z8" s="4"/>
